--- a/data/tables/regression_stats.xlsx
+++ b/data/tables/regression_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottlee/code/fairness/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{448E7934-27C5-FB4B-B331-5DF8F80DE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76D301-9A1C-AF4E-AEAE-5C6446468445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14240"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micro_stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>coef</t>
   </si>
@@ -31,42 +42,6 @@
     <t>upper</t>
   </si>
   <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>loss[T.micro]</t>
-  </si>
-  <si>
-    <t>goal[T.opportunity]</t>
-  </si>
-  <si>
-    <t>goal[T.strict]</t>
-  </si>
-  <si>
-    <t>class_balance[T.one_rare]</t>
-  </si>
-  <si>
-    <t>class_balance[T.two_rare]</t>
-  </si>
-  <si>
-    <t>group_balance[T.slight_minority]</t>
-  </si>
-  <si>
-    <t>group_balance[T.strong_minority]</t>
-  </si>
-  <si>
-    <t>group_balance[T.one_slight_minority]</t>
-  </si>
-  <si>
-    <t>group_balance[T.one_strong_minority]</t>
-  </si>
-  <si>
-    <t>group_balance[T.two_slight_minorities]</t>
-  </si>
-  <si>
-    <t>group_balance[T.two_strong_minorities]</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -80,14 +55,74 @@
   </si>
   <si>
     <t>Relative change in mean TPR</t>
+  </si>
+  <si>
+    <t>loss.macro</t>
+  </si>
+  <si>
+    <t>goal.opportunity</t>
+  </si>
+  <si>
+    <t>goal.strict</t>
+  </si>
+  <si>
+    <t>group_balance.slight_minority</t>
+  </si>
+  <si>
+    <t>group_balance.strong_minority</t>
+  </si>
+  <si>
+    <t>class_balance.one_rare</t>
+  </si>
+  <si>
+    <t>class_balance.two_rare</t>
+  </si>
+  <si>
+    <t>pred_bias.high</t>
+  </si>
+  <si>
+    <t>pred_bias.medium</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>group_balance.one_slight_minority</t>
+  </si>
+  <si>
+    <t>group_balance.one_strong_minority</t>
+  </si>
+  <si>
+    <t>group_balance.two_slight_minorities</t>
+  </si>
+  <si>
+    <t>group_balance.two_strong_minorities</t>
+  </si>
+  <si>
+    <t>pred_bias.high_one</t>
+  </si>
+  <si>
+    <t>pred_bias.low_two</t>
+  </si>
+  <si>
+    <t>pred_bias.medium_one</t>
+  </si>
+  <si>
+    <t>pred_bias.medium_two</t>
+  </si>
+  <si>
+    <t>pred_bias.high_two</t>
+  </si>
+  <si>
+    <t>goal.parity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -566,17 +601,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -932,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,21 +986,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -974,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -991,506 +1029,760 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.196639315302469</v>
+        <v>-7.6077101351852E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.24916410843720099</v>
+        <v>-0.12692055609884101</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.14411452216773599</v>
+        <v>-2.5233646604862901E-2</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>1.2600268301481401</v>
+        <v>-0.14028010588425899</v>
       </c>
       <c r="H3" s="2">
-        <v>1.1987372047262499</v>
+        <v>-0.18267910949574101</v>
       </c>
       <c r="I3" s="2">
-        <v>1.3213164555700401</v>
+        <v>-9.7881102272777895E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>7.7833965283950604E-2</v>
+        <v>-9.0813426981481399E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>4.0693327877960497E-2</v>
+        <v>-0.121473183788968</v>
       </c>
       <c r="D4" s="2">
-        <v>0.11497460268994</v>
+        <v>-6.0153670173994499E-2</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>-0.178818870234567</v>
+        <v>0.103274044055555</v>
       </c>
       <c r="H4" s="2">
-        <v>-0.22215717998677501</v>
+        <v>7.7706482880244995E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>-0.13548056048236001</v>
+        <v>0.12884160523086599</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>1.8628696166666701E-2</v>
+        <v>0.197162336592592</v>
       </c>
       <c r="C5" s="2">
-        <v>-2.6859109016534301E-2</v>
+        <v>0.153802892696383</v>
       </c>
       <c r="D5" s="2">
-        <v>6.4116501349867697E-2</v>
+        <v>0.24052178048880099</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
-        <v>2.3866444481481199E-2</v>
+        <v>0.17361305579629599</v>
       </c>
       <c r="H5" s="2">
-        <v>-2.9211928122314702E-2</v>
+        <v>0.137455064025368</v>
       </c>
       <c r="I5" s="2">
-        <v>7.6944817085277104E-2</v>
+        <v>0.20977104756722401</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>1.6808357740740701E-2</v>
+        <v>2.3321518148148E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>-2.8679447442460301E-2</v>
+        <v>-2.0037925748060698E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>6.22961629239418E-2</v>
+        <v>6.6680962044356806E-2</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
-        <v>1.52064161111111E-2</v>
+        <v>1.50612428888888E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>-3.7871956492684801E-2</v>
+        <v>-2.10967488820391E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>6.8284788714906994E-2</v>
+        <v>5.1219234659816898E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>-3.2562716481481799E-3</v>
+        <v>2.1206979370370499E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>-4.8744076831349202E-2</v>
+        <v>-2.21524645258382E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>4.2231533535052802E-2</v>
+        <v>6.4566423266579298E-2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
-        <v>-0.115866065981481</v>
+        <v>8.0469711666670204E-3</v>
       </c>
       <c r="H7" s="2">
-        <v>-0.168944438585277</v>
+        <v>-2.8111020604260899E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>-6.2787693377685694E-2</v>
+        <v>4.4204962937595002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>8.2560139944444305E-2</v>
+        <v>-4.7758241180555501E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>3.7072334761243303E-2</v>
+        <v>-8.5308621088638403E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.128047945127645</v>
+        <v>-1.02078612724726E-2</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.218516161759259</v>
+        <v>9.1549923472221198E-3</v>
       </c>
       <c r="H8" s="2">
-        <v>-0.27159453436305497</v>
+        <v>-2.2158747076230199E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>-0.16543778915546301</v>
+        <v>4.04687317706744E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>-5.2931906574073997E-2</v>
+        <v>-6.9044864597222103E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>-9.8419711757275E-2</v>
+        <v>-0.106595244505305</v>
       </c>
       <c r="D9" s="2">
-        <v>-7.44410139087301E-3</v>
+        <v>-3.14944846891392E-2</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
-        <v>8.32317707407388E-3</v>
+        <v>3.1898805138888299E-3</v>
       </c>
       <c r="H9" s="2">
-        <v>-4.4755195529722E-2</v>
+        <v>-2.8123858909563499E-2</v>
       </c>
       <c r="I9" s="2">
-        <v>6.1401549677869698E-2</v>
+        <v>3.4503619937341197E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>-9.6064370351851794E-2</v>
+        <v>-5.2417484999999096E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.14155217553505201</v>
+        <v>-4.2792128408082802E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>-5.0576565168650701E-2</v>
+        <v>3.2308631408083002E-2</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>2.6729704407407202E-2</v>
+        <v>-4.4652519249999897E-2</v>
       </c>
       <c r="H10" s="2">
-        <v>-2.6348668196388599E-2</v>
+        <v>-7.5966258673452303E-2</v>
       </c>
       <c r="I10" s="2">
-        <v>7.9808077011203099E-2</v>
+        <v>-1.3338779826547501E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.5362999930555605E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.7812620022472702E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.112913379838638</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-0.14120069834722199</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-0.17251443777067399</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-0.109886958923769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.25268985017222101</v>
+        <v>-0.200327132458333</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.28679568284724799</v>
+        <v>-0.23787751236641599</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.218584017497195</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>-0.16277675255025001</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2">
-        <v>1.23283272236296</v>
+        <v>-0.183939374111111</v>
       </c>
       <c r="H12" s="2">
-        <v>1.1880474401702601</v>
+        <v>-0.215253113534563</v>
       </c>
       <c r="I12" s="2">
-        <v>1.27761800455565</v>
+        <v>-0.152625634687658</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>9.9730308040740803E-2</v>
+        <v>-6.2345557777777699E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>7.8159885490805298E-2</v>
+        <v>-9.9895937685860595E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.121300730590676</v>
+        <v>-2.47951778696948E-2</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2">
-        <v>-0.18960664436666699</v>
+        <v>-8.4658154527777696E-2</v>
       </c>
       <c r="H13" s="2">
-        <v>-0.21793134384312701</v>
+        <v>-0.11597189395123</v>
       </c>
       <c r="I13" s="2">
-        <v>-0.161281944890206</v>
+        <v>-5.3344415104325402E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.13359319827638899</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.17285280552075899</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-9.4333591032019506E-2</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
-        <v>6.5471281705555107E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.9053017313771997E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>9.1889546097338196E-2</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4.33762822611133E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>8.6857518436098593E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>7.8066812678616704E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6.3540780011110701E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3.7122515619327598E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.9959044402893706E-2</v>
-      </c>
-      <c r="E15" s="4"/>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>2.2538993750002401E-2</v>
+        <v>-0.17914348829027801</v>
       </c>
       <c r="H15" s="2">
-        <v>-1.2151536667500899E-2</v>
+        <v>-0.20891429869904299</v>
       </c>
       <c r="I15" s="2">
-        <v>5.7229524167505798E-2</v>
+        <v>-0.14937267788151301</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>2.2716986627777699E-2</v>
+        <v>-0.11359812346388901</v>
       </c>
       <c r="C16" s="2">
-        <v>-3.7012777640053401E-3</v>
+        <v>-0.13322792708607301</v>
       </c>
       <c r="D16" s="2">
-        <v>4.9135251019560802E-2</v>
+        <v>-9.3968319841704298E-2</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2">
-        <v>-7.2108005405555106E-2</v>
+        <v>0.119085746380555</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.106798535823058</v>
+        <v>0.10420034117617299</v>
       </c>
       <c r="I16" s="2">
-        <v>-3.7417474988051702E-2</v>
+        <v>0.133971151584937</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>6.7575294722222096E-2</v>
+        <v>0.243723631405555</v>
       </c>
       <c r="C17" s="2">
-        <v>4.1157030330439E-2</v>
+        <v>0.21596289689634099</v>
       </c>
       <c r="D17" s="2">
-        <v>9.3993559114005101E-2</v>
+        <v>0.27148436591476899</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.253005671116666</v>
+        <v>0.20454536579999899</v>
       </c>
       <c r="H17" s="2">
-        <v>-0.28769620153416903</v>
+        <v>0.183494223878543</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.218315140699162</v>
+        <v>0.22559650772145601</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>-3.2792724944444303E-2</v>
+        <v>8.1205389933333594E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>-6.6898557619471E-2</v>
+        <v>5.34446554241194E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>1.3131077305823201E-3</v>
+        <v>0.108966124442547</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2">
-        <v>-1.9546959231481399E-2</v>
+        <v>2.90650024222225E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>-6.4332241424178802E-2</v>
+        <v>8.0138605007660599E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>2.5238322961216E-2</v>
+        <v>5.0116144343678899E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>-4.2937115055555398E-2</v>
+        <v>7.8784912511111402E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>-7.7042947730582095E-2</v>
+        <v>5.1024178001897201E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>-8.8312823805287693E-3</v>
+        <v>0.106545647020325</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
-        <v>-2.3214548037036899E-2</v>
+        <v>1.48560857388892E-2</v>
       </c>
       <c r="H19" s="2">
-        <v>-6.7999830229734395E-2</v>
+        <v>-6.1950561825671402E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>2.1570734155660399E-2</v>
+        <v>3.5907227660345702E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>-5.62034937037037E-2</v>
+        <v>-2.8743092124999901E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>-9.0309326378730403E-2</v>
+        <v>-5.97805368589635E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>-2.2097661028676899E-2</v>
+        <v>2.2943526089636598E-3</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2">
-        <v>-3.06573393796295E-2</v>
+        <v>-1.52408230416666E-2</v>
       </c>
       <c r="H20" s="2">
-        <v>-7.5442621572327007E-2</v>
+        <v>-3.8776715211852698E-2</v>
       </c>
       <c r="I20" s="2">
-        <v>1.41279428130679E-2</v>
+        <v>8.2950691285193605E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>-9.2179106342592507E-2</v>
+        <v>-3.4954858868055397E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.126284939017619</v>
+        <v>-6.5992303602019006E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>-5.8073273667565803E-2</v>
+        <v>-3.9174141340917899E-3</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-8.3139119652775907E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-3.1849804135463601E-2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.5221980204908401E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-4.8640645104166699E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-7.9678089838130295E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1.76032003702031E-2</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1.5973391173611198E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-3.9509283343797198E-2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7.5625009965748103E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-7.4413049555555402E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-0.105450494289519</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-4.33756048215918E-2</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1.1455279090277701E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-3.4991171260463701E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.2080613079908299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.0402346079166699E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-3.6391552335280899E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.4443847391861503E-2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-4.14800083333332E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-5.9710832015986003E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-2.3249184650680401E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2">
-        <v>-3.0543318740740899E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>-7.5328600933438405E-2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1.4241963451956399E-2</v>
-      </c>
+      <c r="B25" s="2">
+        <v>6.6251231125000004E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.2209729812305197E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9.0292732437694895E-2</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-0.1844874017</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-0.20271822538265299</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-0.166256578017347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-0.18271926188333301</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-0.21671907909955601</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-0.14871944466710901</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-0.16261408725833301</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-0.18839636536357299</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-0.13683180915309301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-0.15308861310833199</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-0.18708843032455599</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.119088795892109</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.13183003129999901</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-0.15761230940523899</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-0.106047753194759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.4624085000012602E-3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-2.9537408716222301E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.8462225716224797E-2</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-3.01583703333196E-3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-2.8798115138572201E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2.27664410719082E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-5.6818947233332702E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-9.0818764449556305E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-2.2819130017109002E-2</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-5.86401910749993E-2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-8.4422469180239504E-2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-3.2857912969759102E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-3.6615477616666697E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-7.0615294832890294E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-2.6156604004431202E-3</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-5.6275415275000101E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-8.2057693380240396E-2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-3.0493137169759901E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="E15:E30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
